--- a/data/BrDU.xlsx
+++ b/data/BrDU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Projects\R\IHC\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\R\LT-AoP-22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864FD15-8060-4E3D-8208-AB813ED2FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0A1B7-EB97-498F-9BBE-2823F511A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{E861F206-897F-4109-87CA-BFD877A4A279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E861F206-897F-4109-87CA-BFD877A4A279}"/>
   </bookViews>
   <sheets>
     <sheet name="EGL" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
   <si>
     <t>BH1N</t>
   </si>
@@ -72,12 +72,18 @@
   <si>
     <t>Mouse</t>
   </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +99,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +137,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -183,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,778 +497,986 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA4E2DB-DBC3-446B-9134-C4F2D73CD86B}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.15234375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="22"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>5.3206248997673309E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
         <v>2.7964929505158927E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>1.3600645658592926E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
         <v>1.6457243800795577E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>2.8837082180717831E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.6333731386101626E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
         <v>3.3552610257409872E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>1.2852276766754261E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <v>9.8076502071776004E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <v>5.0098547484047823E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
         <v>3.1196498295457248E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
         <v>5.9985592194799697E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
         <v>4.2463367055447787E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
         <v>6.0744211473760276E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="9">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
         <v>5.8742334671521305E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>5.9764311813095064E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
         <v>4.2141830902204776E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
         <v>4.1620656479086483E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
         <v>6.5283950213080452E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
         <v>1.1237838263564878E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
         <v>5.9468650244249457E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
         <v>4.7318374985342626E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
         <v>1.2743522402110238E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
         <v>1.0788537372547757E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
         <v>6.1509816190419717E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="9">
-        <v>4</v>
-      </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
         <v>7.8390686268748168E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
         <v>4.8759272006236327E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="9">
-        <v>2</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8">
         <v>6.2102442484894993E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
         <v>6.8433011464898069E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="C31" s="9">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8">
         <v>1.0044267764485367E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
       <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
         <v>6.2214507226550554E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="9">
-        <v>2</v>
-      </c>
       <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9">
         <v>5.9665658633077607E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="9">
-        <v>3</v>
-      </c>
       <c r="C34" s="9">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9">
         <v>5.6589202638822114E-5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C6794-B7B9-4DDB-97F7-D95D2AD8BEBD}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.53515625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
         <v>4.703772600309519E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
-        <v>2</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14">
         <v>4.1417318407580325E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
         <v>2.9397410343638974E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
         <v>4.2013988332612073E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
         <v>2.0559346694327249E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15">
         <v>1.8073610141687375E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15">
         <v>4.0677638119292111E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
         <v>3.1561274579618833E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="16">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16">
         <v>2.9170762741192807E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="16">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="16">
         <v>9.0376272071171111E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>4</v>
-      </c>
-      <c r="C12" s="16">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
         <v>8.9986652923250624E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
         <v>2.3773948870817989E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="17">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="17">
         <v>3.6779102418906819E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="17">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17">
         <v>3.0972458247654328E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="9">
-        <v>4</v>
-      </c>
-      <c r="C16" s="17">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17">
         <v>5.4849137687843423E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
         <v>2.0877942998909946E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="18">
         <v>3.0787313762659051E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" s="18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="9">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18">
         <v>3.3513611354260384E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
         <v>7.2552398216625167E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19">
         <v>3.4547030286956841E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="19">
         <v>2.665158842675046E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+      <c r="D23" s="19">
         <v>4.8270627683271377E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
         <v>1.100543300904884E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9">
-        <v>2</v>
-      </c>
-      <c r="C25" s="20">
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="20">
         <v>8.6720726284855048E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="20">
         <v>4.4130021166559288E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="9">
-        <v>4</v>
-      </c>
-      <c r="C27" s="20">
+      <c r="C27" s="9">
+        <v>4</v>
+      </c>
+      <c r="D27" s="20">
         <v>5.081322528988419E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21">
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21">
         <v>4.0802417543217842E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="9">
-        <v>2</v>
-      </c>
-      <c r="C29" s="21">
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="21">
         <v>3.46805268856015E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="21">
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="21">
         <v>4.2479495660100052E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="9">
-        <v>4</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="C31" s="9">
+        <v>4</v>
+      </c>
+      <c r="D31" s="21">
         <v>6.1965689778183811E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="22">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22">
         <v>4.54264673856446E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="9">
-        <v>2</v>
-      </c>
-      <c r="C33" s="22">
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="22">
         <v>4.4336746043046612E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="9">
-        <v>3</v>
-      </c>
-      <c r="C34" s="22">
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+      <c r="D34" s="22">
         <v>4.3134438517474893E-5</v>
       </c>
     </row>
